--- a/2015春季逐月工作量统计/2015.03/魏绍飞 工作日志.xlsx
+++ b/2015春季逐月工作量统计/2015.03/魏绍飞 工作日志.xlsx
@@ -1,28 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="123820"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="12195"/>
   </bookViews>
   <sheets>
     <sheet name="魏绍飞2015年03月份" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="20">
   <si>
     <t>工作内容</t>
   </si>
   <si>
+    <t>创业认识与实践</t>
+  </si>
+  <si>
     <t>实际小时数</t>
   </si>
   <si>
+    <t>校内电子实习</t>
+  </si>
+  <si>
+    <t>外校电子实习</t>
+  </si>
+  <si>
     <t>工作类别</t>
   </si>
   <si>
@@ -36,30 +49,30 @@
   </si>
   <si>
     <r>
-      <t xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">项目号</t>
+      <t>项目号</t>
     </r>
     <r>
       <rPr>
         <sz val="14"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <color rgb="FFFF0000"/>
       </rPr>
-      <t xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">-</t>
+      <t>-</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Arial Unicode MS"/>
         <family val="2"/>
-        <color rgb="FFFF0000"/>
       </rPr>
-      <t xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">项目名称</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">A032015A013 </t>
+      <t>项目名称</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A032015A013 </t>
     </r>
     <r>
       <rPr>
@@ -67,12 +80,12 @@
         <rFont val="Arial Unicode MS"/>
         <family val="2"/>
       </rPr>
-      <t xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">本校电子工艺实习</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">A-</t>
+      <t>本校电子工艺实习</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>A-</t>
     </r>
     <r>
       <rPr>
@@ -80,12 +93,12 @@
         <rFont val="Arial Unicode MS"/>
         <family val="2"/>
       </rPr>
-      <t xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">本校实习实验</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">B032015A014 </t>
+      <t>本校实习实验</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>H-</t>
     </r>
     <r>
       <rPr>
@@ -93,12 +106,12 @@
         <rFont val="Arial Unicode MS"/>
         <family val="2"/>
       </rPr>
-      <t xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">外校电子工艺实习</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">B-</t>
+      <t>教研项目</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>EDA</t>
     </r>
     <r>
       <rPr>
@@ -106,20 +119,12 @@
         <rFont val="Arial Unicode MS"/>
         <family val="2"/>
       </rPr>
-      <t xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">外校实习实验</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">创业认识与实践</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">/</t>
+      <t>课改</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B032015A014 </t>
     </r>
     <r>
       <rPr>
@@ -127,12 +132,12 @@
         <rFont val="Arial Unicode MS"/>
         <family val="2"/>
       </rPr>
-      <t xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">外校电子实习</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">C022015A015 </t>
+      <t>外校电子工艺实习</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>B-</t>
     </r>
     <r>
       <rPr>
@@ -140,12 +145,12 @@
         <rFont val="Arial Unicode MS"/>
         <family val="2"/>
       </rPr>
-      <t xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">实验室科研探究</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">H-</t>
+      <t>外校实习实验</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">C122015A002 </t>
     </r>
     <r>
       <rPr>
@@ -153,12 +158,12 @@
         <rFont val="Arial Unicode MS"/>
         <family val="2"/>
       </rPr>
-      <t xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">教研项目</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">EDA</t>
+      <t>创业认识与实践</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>C-</t>
     </r>
     <r>
       <rPr>
@@ -166,20 +171,48 @@
         <rFont val="Arial Unicode MS"/>
         <family val="2"/>
       </rPr>
-      <t xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">课改太阳能电池板固定模型</t>
+      <t>讲课（选修课、探究课等）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>I-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>科研开发</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>EDA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>课改太阳能电池板固定模型</t>
     </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-    <numFmt numFmtId="165" formatCode="YYYY\-MM\-DD\ DDDD"/>
-    <numFmt numFmtId="166" formatCode="@"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;¥&quot;* #,##0_ ;_ &quot;¥&quot;* \-#,##0_ ;_ &quot;¥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;¥&quot;* #,##0.00_ ;_ &quot;¥&quot;* \-#,##0.00_ ;_ &quot;¥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ dddd"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -188,34 +221,34 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
-      <family val="0"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial Unicode MS"/>
       <family val="2"/>
-      <color rgb="FFFF0000"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <color rgb="FFFF0000"/>
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial Unicode MS"/>
+      <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -241,61 +274,61 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  <cellStyleXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="0" fillId="2" applyFill="1" borderId="0" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" applyFill="1" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" applyFill="1" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" applyFont="1" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0"/>
+  <cellStyles count="7">
     <cellStyle name="Comma" xfId="1"/>
     <cellStyle name="Comma[0]" xfId="2"/>
     <cellStyle name="Currency" xfId="3"/>
     <cellStyle name="Currency[0]" xfId="4"/>
+    <cellStyle name="Normal" xfId="6"/>
     <cellStyle name="Percent" xfId="5"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -365,11 +398,19 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -411,11 +452,11 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="?? ??"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
@@ -443,13 +484,14 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="?? ??"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
@@ -477,6 +519,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -511,16 +554,20 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="100000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="130000"/>
+                <a:shade val="40000"/>
+                <a:satMod val="155000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="65000">
+              <a:schemeClr val="phClr">
+                <a:shade val="85000"/>
+                <a:satMod val="155000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
+                <a:shade val="95000"/>
+                <a:satMod val="155000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -528,7 +575,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="rnd" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -543,7 +590,7 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="34925" cap="rnd" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -553,16 +600,16 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="50800" algn="tl" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="64000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="39000" dist="25400" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -571,22 +618,22 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="39000" dist="25400" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
           <a:scene3d>
-            <a:camera prst="orthographicFront">
+            <a:camera prst="orthographicFront" fov="0">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
             <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:lightRig>
           </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+          <a:sp3d prstMaterial="matte">
+            <a:bevelT h="22225"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -598,27 +645,24 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:shade val="50000"/>
+                <a:satMod val="155000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:shade val="75000"/>
+                <a:satMod val="155000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="80000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -648,310 +692,386 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:IV32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="C14" sqref="C14:C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.1"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.605469" style="1" customWidth="1"/>
-    <col min="2" max="2" width="36.902344" style="0" customWidth="1"/>
-    <col min="3" max="3" width="16.722656" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16.144531" style="0" customWidth="1"/>
-    <col min="5" max="5" width="29.695312" style="0" customWidth="1"/>
-    <col min="6" max="6" width="23.0625" style="0" customWidth="1"/>
-    <col min="7" max="7" width="28.394531" style="0" customWidth="1"/>
+    <col min="1" max="1" width="19.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="36.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" customWidth="1"/>
+    <col min="5" max="5" width="29.7109375" customWidth="1"/>
+    <col min="6" max="6" width="23" customWidth="1"/>
+    <col min="7" max="7" width="28.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="38.9" customHeight="1">
+    <row r="1" spans="1:256" ht="38.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:256" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="8">
+        <v>42065</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="10">
+        <v>6</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:256" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>42066</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="7">
+        <v>6</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:256" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="8">
+        <v>42069</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="10">
+        <v>6</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" spans="1:256" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <v>42072</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="7">
+        <v>6</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:256" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="8">
+        <v>42073</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="10">
+        <v>6</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:256" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
+        <v>42076</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="7">
+        <v>6</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+    </row>
+    <row r="8" spans="1:256" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="8">
+        <v>42079</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="10">
+        <v>6</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="IV8"/>
+    </row>
+    <row r="9" spans="1:256" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
+        <v>42080</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="7">
+        <v>6</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="IV9"/>
+    </row>
+    <row r="10" spans="1:256" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="8">
+        <v>42083</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="10">
+        <v>6</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="IV10"/>
+    </row>
+    <row r="11" spans="1:256" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
+        <v>42068</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="7">
+        <v>6</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="11" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" ht="18" customHeight="1">
-      <c r="A2" s="5" t="n">
-        <v>42056.0</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-    </row>
-    <row r="3" ht="18" customHeight="1">
-      <c r="A3" s="8" t="n">
-        <v>42057.0</v>
-      </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" ht="18" customHeight="1">
-      <c r="A4" s="5" t="n">
-        <v>42058.0</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-    </row>
-    <row r="5" ht="18" customHeight="1">
-      <c r="A5" s="8" t="n">
-        <v>42059.0</v>
-      </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" ht="18" customHeight="1">
-      <c r="A6" s="5" t="n">
-        <v>42060.0</v>
-      </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-    </row>
-    <row r="7" ht="18" customHeight="1">
-      <c r="A7" s="8" t="n">
-        <v>42061.0</v>
-      </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-    </row>
-    <row r="8" s="6" customFormat="1" ht="18" customHeight="1">
-      <c r="A8" s="5" t="n">
-        <v>42062.0</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="IV8"/>
-    </row>
-    <row r="9" s="6" customFormat="1" ht="18" customHeight="1">
-      <c r="A9" s="8" t="n">
-        <v>42063.0</v>
-      </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="IV9"/>
-    </row>
-    <row r="10" s="6" customFormat="1" ht="18" customHeight="1">
-      <c r="A10" s="5" t="n">
-        <v>42064.0</v>
-      </c>
-      <c r="C10" s="7"/>
-      <c r="IV10"/>
-    </row>
-    <row r="11" s="6" customFormat="1" ht="18" customHeight="1">
-      <c r="A11" s="8" t="n">
-        <v>42065.0</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="10" t="n">
-        <v>6</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
       <c r="IV11"/>
     </row>
-    <row r="12" s="6" customFormat="1" ht="18" customHeight="1">
-      <c r="A12" s="5" t="n">
-        <v>42066.0</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="7" t="n">
-        <v>6</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" s="6" customFormat="1" ht="18" customHeight="1">
-      <c r="A13" s="8" t="n">
-        <v>42067.0</v>
-      </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-    </row>
-    <row r="14" s="6" customFormat="1" ht="18" customHeight="1">
-      <c r="A14" s="5" t="n">
-        <v>42068.0</v>
-      </c>
+    <row r="12" spans="1:256" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="8">
+        <v>42075</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="10">
+        <v>12</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:256" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="5">
+        <v>42082</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="7">
+        <v>12</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:256" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="5"/>
       <c r="B14" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="7" t="n">
-        <v>12</v>
+        <v>16</v>
+      </c>
+      <c r="C14" s="7">
+        <v>4</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" s="6" customFormat="1" ht="18" customHeight="1">
-      <c r="A15" s="8" t="n">
-        <v>42069.0</v>
-      </c>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:256" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="8"/>
       <c r="B15" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="10" t="n">
-        <v>6</v>
+        <v>16</v>
+      </c>
+      <c r="C15" s="10">
+        <v>4</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-    </row>
-    <row r="16" s="6" customFormat="1" ht="18" customHeight="1">
-      <c r="A16" s="5" t="n">
-        <v>42070.0</v>
-      </c>
-      <c r="C16" s="7"/>
-    </row>
-    <row r="17" s="6" customFormat="1" ht="18" customHeight="1">
-      <c r="A17" s="8" t="n">
-        <v>42071.0</v>
+      <c r="G15" s="11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:256" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="5"/>
+      <c r="B16" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="7">
+        <v>4</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="8">
+        <v>42067</v>
       </c>
       <c r="B17" s="9"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
+      <c r="C17" s="10">
+        <v>8</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
     </row>
-    <row r="18" s="6" customFormat="1" ht="18" customHeight="1">
-      <c r="A18" s="5" t="n">
-        <v>42072.0</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="7" t="n">
-        <v>6</v>
-      </c>
-      <c r="D18" s="6" t="s">
+    <row r="18" spans="1:7" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="8">
+        <v>42081</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="10">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" s="6" customFormat="1" ht="18" customHeight="1">
-      <c r="A19" s="8" t="n">
-        <v>42073.0</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="10" t="n">
-        <v>6</v>
-      </c>
-      <c r="D19" s="9" t="s">
+      <c r="D18" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+    </row>
+    <row r="19" spans="1:7" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="5">
+        <v>42074</v>
+      </c>
+      <c r="C19" s="7">
         <v>8</v>
       </c>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-    </row>
-    <row r="20" s="6" customFormat="1" ht="18" customHeight="1">
-      <c r="A20" s="5" t="n">
-        <v>42074.0</v>
+      <c r="D19" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="5">
+        <v>42056</v>
       </c>
       <c r="C20" s="7"/>
     </row>
-    <row r="21" s="6" customFormat="1" ht="18" customHeight="1">
-      <c r="A21" s="8" t="n">
-        <v>42075.0</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="10" t="n">
-        <v>12</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>10</v>
-      </c>
+    <row r="21" spans="1:7" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="8">
+        <v>42057</v>
+      </c>
+      <c r="B21" s="9"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="9"/>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
-      <c r="G21" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" s="6" customFormat="1" ht="18" customHeight="1">
-      <c r="A22" s="5" t="n">
-        <v>42076.0</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="7" t="n">
-        <v>6</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" s="6" customFormat="1" ht="18" customHeight="1">
-      <c r="A23" s="8" t="n">
-        <v>42077.0</v>
+      <c r="G21" s="9"/>
+    </row>
+    <row r="22" spans="1:7" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="5">
+        <v>42058</v>
+      </c>
+      <c r="C22" s="7"/>
+    </row>
+    <row r="23" spans="1:7" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="8">
+        <v>42059</v>
       </c>
       <c r="B23" s="9"/>
       <c r="C23" s="10"/>
@@ -960,102 +1080,67 @@
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
     </row>
-    <row r="24" s="6" customFormat="1" ht="18" customHeight="1">
-      <c r="A24" s="5" t="n">
-        <v>42078.0</v>
+    <row r="24" spans="1:7" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="5">
+        <v>42060</v>
       </c>
       <c r="C24" s="7"/>
     </row>
-    <row r="25" s="6" customFormat="1" ht="18" customHeight="1">
-      <c r="A25" s="8" t="n">
-        <v>42079.0</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="10" t="n">
-        <v>6</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>8</v>
-      </c>
+    <row r="25" spans="1:7" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="8">
+        <v>42061</v>
+      </c>
+      <c r="B25" s="9"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="9"/>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
     </row>
-    <row r="26" s="6" customFormat="1" ht="18" customHeight="1">
-      <c r="A26" s="5" t="n">
-        <v>42080.0</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="7" t="n">
-        <v>6</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" s="6" customFormat="1" ht="18" customHeight="1">
-      <c r="A27" s="8" t="n">
-        <v>42081.0</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="10" t="n">
-        <v>8</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>14</v>
-      </c>
+    <row r="26" spans="1:7" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="5">
+        <v>42062</v>
+      </c>
+      <c r="C26" s="7"/>
+    </row>
+    <row r="27" spans="1:7" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="8">
+        <v>42063</v>
+      </c>
+      <c r="B27" s="9"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
     </row>
-    <row r="28" s="6" customFormat="1" ht="18" customHeight="1">
-      <c r="A28" s="5" t="n">
-        <v>42082.0</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" s="7" t="n">
-        <v>12</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G28" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" s="6" customFormat="1" ht="18" customHeight="1">
-      <c r="A29" s="8" t="n">
-        <v>42083.0</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" s="10" t="n">
-        <v>6</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-    </row>
-    <row r="30" s="6" customFormat="1" ht="18" customHeight="1">
-      <c r="A30" s="5"/>
-      <c r="C30" s="7"/>
-    </row>
-    <row r="31" s="6" customFormat="1" ht="17.3" customHeight="1">
-      <c r="A31" s="8"/>
+    <row r="28" spans="1:7" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="5">
+        <v>42064</v>
+      </c>
+      <c r="C28" s="7"/>
+    </row>
+    <row r="29" spans="1:7" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="5">
+        <v>42070</v>
+      </c>
+      <c r="C29" s="7"/>
+    </row>
+    <row r="30" spans="1:7" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="8">
+        <v>42071</v>
+      </c>
+      <c r="B30" s="9"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+    </row>
+    <row r="31" spans="1:7" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="8">
+        <v>42077</v>
+      </c>
       <c r="B31" s="9"/>
       <c r="C31" s="10"/>
       <c r="D31" s="9"/>
@@ -1063,27 +1148,49 @@
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
     </row>
-    <row r="32" ht="12.1">
-      <c r="A32" s="5"/>
-      <c r="B32" s="6"/>
+    <row r="32" spans="1:7" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="5">
+        <v>42078</v>
+      </c>
       <c r="C32" s="7"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
+    </row>
+    <row r="33" spans="1:7" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="5"/>
+      <c r="C33" s="7"/>
+    </row>
+    <row r="34" spans="1:7" s="6" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="8"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="5"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
     </row>
   </sheetData>
+  <sortState ref="A2:G35">
+    <sortCondition ref="D1"/>
+  </sortState>
+  <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" prompt="undefined" error="输入的值违反了单元格{0}中设置的数据验证规则" sqref="B8:B159">
+    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" error="输入的值违反了单元格{0}中设置的数据验证规则" prompt="undefined" sqref="B8:B162">
       <formula1>"A032015A007 本校金工实习,A032015A013 本校电子工艺实习,B032015A008 外校金工实习,B032015A014 外校电子工艺实习,C022015A010 制造工程体验,C022015A015 实验室科研探究,C042015A001 创业导引课,C122015A002 创业认识与实践,C122015A003 生态文明-自行车工坊,C132015A009 先进制造工艺与创新制作,D042015A016 三创讲座,D042015A018 创客教育基地联盟,D042015A020 创"</formula1>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" prompt="undefined" error="输入的值违反了单元格{0}中设置的数据验证规则" sqref="D8:D159">
+    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" error="输入的值违反了单元格{0}中设置的数据验证规则" prompt="undefined" sqref="D8:D162">
       <formula1>"A-本校实习实验,B-外校实习实验,C-讲课（选修课、探究课等）,D-科技竞赛/创新指导,E-SRT,F-备注1,G-教学准备,H-教研项目,I-科研开发,J-服务/培训,K-其他工作,L-备注2"</formula1>
     </dataValidation>
   </dataValidations>
-  <printOptions/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup horizontalDpi="300" verticalDpi="300" orientation="portrait" paperSize="1"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
